--- a/3-course-6-semester/econometrics/task-11/task-11.xlsx
+++ b/3-course-6-semester/econometrics/task-11/task-11.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58487F06-48A4-4882-8915-E85E6C4A7015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C219E8-30CD-41AB-8CC4-FA05DE852E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="ДЗ №1" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ №2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Стандартная ошибка</t>
   </si>
@@ -47,14 +47,143 @@
     <t>А</t>
   </si>
   <si>
-    <t>ДЗ №1</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>t^2</t>
+  </si>
+  <si>
+    <t>ВЫВОД ИТОГОВ</t>
+  </si>
+  <si>
+    <t>Регрессионная статистика</t>
+  </si>
+  <si>
+    <t>Множественный R</t>
+  </si>
+  <si>
+    <t>R-квадрат</t>
+  </si>
+  <si>
+    <t>Нормированный R-квадрат</t>
+  </si>
+  <si>
+    <t>Наблюдения</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Регрессия</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Y-пересечение</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Значимость F</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>t-статистика</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>Нижние 95%</t>
+  </si>
+  <si>
+    <t>Верхние 95%</t>
+  </si>
+  <si>
+    <t>Нижние 95,0%</t>
+  </si>
+  <si>
+    <t>Верхние 95,0%</t>
+  </si>
+  <si>
+    <t>ВЫВОД ОСТАТКА</t>
+  </si>
+  <si>
+    <t>Наблюдение</t>
+  </si>
+  <si>
+    <t>Предсказанное А</t>
+  </si>
+  <si>
+    <t>Остатки</t>
+  </si>
+  <si>
+    <t>Yp</t>
+  </si>
+  <si>
+    <t>Точечный прогноз</t>
+  </si>
+  <si>
+    <t>t-tс</t>
+  </si>
+  <si>
+    <t>Поправочный коэффициент Q</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Средняя ошибка прогноза</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>t^3</t>
+  </si>
+  <si>
+    <t>Критерий Стьюдента</t>
+  </si>
+  <si>
+    <t>Предельная ошибка</t>
+  </si>
+  <si>
+    <t>Интервальный прогноз</t>
+  </si>
+  <si>
+    <t>t-tc</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Интервал стандартной ошибки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +199,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -109,9 +258,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -121,13 +268,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -136,24 +298,288 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,7 +588,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -180,6 +659,1116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> (объёма продаж)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.8753718285214342E-2"/>
+                  <c:y val="0.11071376494604841"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43285739282589675"/>
+                  <c:y val="0.11660214348206474"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7031496062992129E-2"/>
+                  <c:y val="-7.9467045785943421E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20627427821522309"/>
+                  <c:y val="-0.12561132983377077"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31594094488188978"/>
+                  <c:y val="7.3657407407407408E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ДЗ №2'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B76-44B6-9137-13D10535E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1565142160"/>
+        <c:axId val="1565144240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1565142160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565144240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1565144240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565142160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,16 +2041,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -476,8 +2065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="85725"/>
-          <a:ext cx="6896100" cy="4171950"/>
+          <a:off x="10487025" y="2133600"/>
+          <a:ext cx="6896100" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,8 +2135,17 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>Обосновать выбор функции тренда, дать интерпретацию параметров</a:t>
-          </a:r>
+            <a:t>Обосновать выбор функции тренда, дать интерпретацию параметров.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>Данная модель хорошо описывается параболой 2-го поряда, потому что у неё больше всего коэффициент детерминации. Также можно взять и параболу 3-го порядка, потому что там коэффцициент детерминации ещё больше, но это больше переменных в регрессии, поэтому оптимально стоит взять параболу 2-го порядка.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
@@ -561,79 +2159,430 @@
         <a:p>
           <a:endParaRPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="1" baseline="0"/>
-            <a:t>ДЗ №2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>Динамика числа учтённых страховых организаций в СПб за 1998-2006 годы характеризовалось уравнением тренда</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0"/>
-            <a:t>y = -2,25 t + 79,58</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0"/>
-            <a:t>R^2 = 0,7198</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1300" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0"/>
-            <a:t>Требуется</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>1) Интерпретировать результат линии тренда</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>2) Оценить стандартную ошибку линии тренда, если размах вариации составлял от </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0"/>
-            <a:t>72 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>до 58</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
-            <a:t>3) Дайте интервальный прогноз на 2010 год</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053D4112-6BD0-42E8-A211-C3E47E375D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943724" y="9982200"/>
+          <a:ext cx="7258051" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ДЗ №2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Динамика числа учтённых страховых организаций в СПб за 1998-2006 годы характеризовалось уравнением тренда</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y = -2,25 t + 79,58</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R^2 = 0,7198</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Требуется</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1) Интерпретировать результат линии тренда.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ежегодно число учтённых страховых организаций падали в среднем на 2.25 штук.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2) Оценить стандартную ошибку линии тренда, если размах вариации составлял от </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>72 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>до 58.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3) Дайте интервальный прогноз на 2010 год.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1300"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD033513-47B4-4E69-81E7-3A5B77E7FB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64725BF3-FBBE-42A5-AD11-59BBD6D835D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="4810125"/>
+          <a:ext cx="2143125" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1"/>
+            <a:t>y = 44.196</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t> x^2 - 220.804 x + 221.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130157</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1069</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7401B8DE-CA7A-47CF-B772-128D5A021FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7035782" y="12811125"/>
+          <a:ext cx="5357312" cy="1152755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -904,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,79 +2915,780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471091B4-CFBF-41FA-8B21-FF23AFEAB06C}">
-  <dimension ref="C6:E16"/>
+  <dimension ref="A3:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="2" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="6" t="s">
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D8">
+      <c r="F4" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
+      <c r="C5" s="15">
+        <f>B5^2</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <f>B5^2</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>($B$12-B5)^2</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" ref="C6:D11" si="0">B6^2</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <f>B6^3</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <f>($B$12-B6)^2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:D11" si="1">B7^3</f>
+        <v>27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <f>(B15-B7)^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="E8" s="5">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <f>(B16-B8)^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E9" s="5">
+        <v>117</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(B17-B9)^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="E10" s="5">
+        <v>550</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(B18-B10)^2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="29">
+        <f>AVERAGE(B5:B10)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="N21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="25"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.95125763972427835</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="23">
+        <f>C37*C11+C36*B11+C35</f>
+        <v>841.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.90489109713380489</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.84148516188967493</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>85.817982908456827</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="23">
+        <f>SQRT(1+1/$B$10+($B$11-$B$12)^2/SUM(F5:F10))</f>
+        <v>1.1385500851066221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="23">
+        <f>O25*C25</f>
+        <v>97.70807174410217</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="D30" s="18">
+        <v>210209.82142857142</v>
+      </c>
+      <c r="E30" s="18">
+        <v>105104.91071428571</v>
+      </c>
+      <c r="F30" s="18">
+        <v>14.271394210174954</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2.9331330117240935E-2</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>22094.178571428565</v>
+      </c>
+      <c r="E31" s="18">
+        <v>7364.7261904761881</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="N31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="23">
+        <f>_xlfn.T.INV.2T(0.05,C31)</f>
+        <v>3.1824463052837091</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="19">
+        <v>5</v>
+      </c>
+      <c r="D32" s="19">
+        <v>232304</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="23">
+        <f>O28*O31</f>
+        <v>310.95069191841355</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="18">
+        <v>221.49999999999977</v>
+      </c>
+      <c r="D35" s="18">
+        <v>153.51587478017962</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1.4428475251642026</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.24475944890737267</v>
+      </c>
+      <c r="G35" s="18">
+        <v>-267.05602849657936</v>
+      </c>
+      <c r="H35" s="18">
+        <v>710.05602849657885</v>
+      </c>
+      <c r="I35" s="18">
+        <v>-267.05602849657936</v>
+      </c>
+      <c r="J35" s="18">
+        <v>710.05602849657885</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="18">
+        <v>-220.80357142857133</v>
+      </c>
+      <c r="D36" s="18">
+        <v>100.43428011191513</v>
+      </c>
+      <c r="E36" s="18">
+        <v>-2.1984881176280373</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0.11533482398489427</v>
+      </c>
+      <c r="G36" s="18">
+        <v>-540.43027509456476</v>
+      </c>
+      <c r="H36" s="18">
+        <v>98.823132237422101</v>
+      </c>
+      <c r="I36" s="18">
+        <v>-540.43027509456476</v>
+      </c>
+      <c r="J36" s="18">
+        <v>98.823132237422101</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="19">
+        <v>44.196428571428562</v>
+      </c>
+      <c r="D37" s="19">
+        <v>14.045264380943923</v>
+      </c>
+      <c r="E37" s="19">
+        <v>3.146713893929443</v>
+      </c>
+      <c r="F37" s="19">
+        <v>5.1395791499558419E-2</v>
+      </c>
+      <c r="G37" s="19">
+        <v>-0.5018711644393079</v>
+      </c>
+      <c r="H37" s="19">
+        <v>88.894728307296432</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-0.5018711644393079</v>
+      </c>
+      <c r="J37" s="19">
+        <v>88.894728307296432</v>
+      </c>
+      <c r="N37" s="27">
+        <f>O22-O34</f>
+        <v>530.54930808158645</v>
+      </c>
+      <c r="O37" s="28">
+        <f>O22+O34</f>
+        <v>1152.4506919184137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="18">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18">
+        <v>44.892857142857004</v>
+      </c>
+      <c r="D44" s="18">
+        <v>-42.892857142857004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C45" s="18">
+        <v>-43.32142857142864</v>
+      </c>
+      <c r="D45" s="18">
+        <v>47.32142857142864</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <v>3</v>
+      </c>
+      <c r="C46" s="18">
+        <v>-43.142857142857167</v>
+      </c>
+      <c r="D46" s="18">
+        <v>53.142857142857167</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D10">
+      <c r="C47" s="18">
+        <v>45.428571428571445</v>
+      </c>
+      <c r="D47" s="18">
+        <v>-14.428571428571445</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
+        <v>5</v>
+      </c>
+      <c r="C48" s="18">
+        <v>222.39285714285711</v>
+      </c>
+      <c r="D48" s="18">
+        <v>-105.39285714285711</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="19">
+        <v>6</v>
+      </c>
+      <c r="C49" s="19">
+        <v>487.75</v>
+      </c>
+      <c r="D49" s="19">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="27">
+        <f>SQRT(72)</f>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="J52" s="28">
+        <f>SQRT(58)</f>
+        <v>7.6157731058639087</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="D56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="7">
+        <v>1998</v>
+      </c>
+      <c r="D57" s="33">
+        <f>(C57-$C$71)^2</f>
+        <v>16</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="23">
+        <f>-2.25*C69+79.58</f>
+        <v>-4442.92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
+        <v>1999</v>
+      </c>
+      <c r="D58" s="30">
+        <f t="shared" ref="D58:D69" si="2">(C58-$C$71)^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="30">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E11" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>1.135*100</f>
-        <v>113.5</v>
+      <c r="F59" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D60" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="23">
+        <f>SQRT(1+1/$C$65+($C$69-$C$71)^2/SUM(D57:D65))</f>
+        <v>1.4377639483424278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>2002</v>
+      </c>
+      <c r="D61" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D62" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D63" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="23">
+        <f>G60*I52</f>
+        <v>12.199831651421707</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D64" s="30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="31">
+        <v>2006</v>
+      </c>
+      <c r="D65" s="32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="34">
+        <v>2007</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="F66" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="23">
+        <f>_xlfn.T.INV.2T(0.05,7)</f>
+        <v>2.3646242515927849</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="36">
+        <v>2008</v>
+      </c>
+      <c r="D67" s="37"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="36">
+        <v>2009</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="F68" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="38">
+        <v>2010</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="F69" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="23">
+        <f>G63*G66</f>
+        <v>28.848017788301025</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="29">
+        <f>AVERAGE(C57:C65)</f>
+        <v>2002</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="27">
+        <f>G57-G69</f>
+        <v>-4471.7680177883012</v>
+      </c>
+      <c r="G72" s="28">
+        <f>G57+G69</f>
+        <v>-4414.0719822116989</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="F56:G56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/3-course-6-semester/econometrics/task-11/task-11.xlsx
+++ b/3-course-6-semester/econometrics/task-11/task-11.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C219E8-30CD-41AB-8CC4-FA05DE852E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB2436-D3ED-4F55-BB65-3DE18E6B332D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ №1" sheetId="1" r:id="rId1"/>
     <sheet name="ДЗ №2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="1"/>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'ДЗ №2'!$I$5</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="179021" iterate="1" iterateCount="1" iterateDelta="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>Стандартная ошибка</t>
   </si>
@@ -178,12 +180,84 @@
   <si>
     <t>Интервал стандартной ошибки</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Коэф опереж</t>
+  </si>
+  <si>
+    <t>ln A</t>
+  </si>
+  <si>
+    <t>Предсказанное ln A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>14 = шесть сигм</t>
+  </si>
+  <si>
+    <t>сигма</t>
+  </si>
+  <si>
+    <t>сигма^2</t>
+  </si>
+  <si>
+    <t>Сумм(y-yср)^2</t>
+  </si>
+  <si>
+    <t>Стандартная ошибка линии тренда</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CosT</t>
+  </si>
+  <si>
+    <t>SinT</t>
+  </si>
+  <si>
+    <t>Предсказанное y</t>
+  </si>
+  <si>
+    <t>Cos2T</t>
+  </si>
+  <si>
+    <t>Sin2T</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Точечный прогноз по тренду</t>
+  </si>
+  <si>
+    <t>Точечный прогноз по ряду Фурье</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +281,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +319,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -255,19 +353,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -551,98 +636,460 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +1181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -816,7 +1263,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -866,7 +1313,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -917,7 +1364,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -967,7 +1414,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1018,7 +1465,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1110,7 +1557,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1565144240"/>
@@ -1169,7 +1616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1565142160"/>
@@ -1217,7 +1664,290 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D049-4FE0-B13C-08BCE03A0822}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95808064"/>
+        <c:axId val="95811344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95808064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95811344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95811344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95808064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1229,6 +1959,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1771,6 +2541,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2041,16 +3327,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2065,8 +3351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10487025" y="2133600"/>
-          <a:ext cx="6896100" cy="2543175"/>
+          <a:off x="11772900" y="200024"/>
+          <a:ext cx="6896100" cy="3981451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2143,6 +3429,44 @@
             <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0"/>
             <a:t>Данная модель хорошо описывается параболой 2-го поряда, потому что у неё больше всего коэффициент детерминации. Также можно взять и параболу 3-го порядка, потому что там коэффцициент детерминации ещё больше, но это больше переменных в регрессии, поэтому оптимально стоит взять параболу 2-го порядка.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>При равных коэф опережения нужно применять логарифмическую параболу</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1300" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>y = a b^t c^(t^2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>lny = lna + t lnb + t^2 lnc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" i="1" baseline="0"/>
+            <a:t>y = 1.22 * 1.4681^t * 1.1115^(t^2)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="ru-RU" sz="1300" b="0" baseline="0"/>
@@ -2166,15 +3490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2189,8 +3513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943724" y="9982200"/>
-          <a:ext cx="7258051" cy="2447925"/>
+          <a:off x="7800974" y="9782175"/>
+          <a:ext cx="6972301" cy="2524125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2357,7 +3681,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Ежегодно число учтённых страховых организаций падали в среднем на 2.25 штук.</a:t>
+            <a:t>Ежегодно число учтённых страховых организаций падали в среднем на 2.25 ед.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2402,6 +3726,8 @@
             </a:rPr>
             <a:t>до 58.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1300">
             <a:effectLst/>
           </a:endParaRPr>
@@ -2432,15 +3758,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2543,16 +3869,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130157</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1069</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114530</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>153469</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2575,14 +3901,634 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7035782" y="12811125"/>
-          <a:ext cx="5357312" cy="1152755"/>
+          <a:off x="9324975" y="12517497"/>
+          <a:ext cx="5039794" cy="1084433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F8D48F-5EE0-496D-93EC-3B329E1ABA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="200025"/>
+          <a:ext cx="6524625" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Задача</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Затраты</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> на рекламу за 12 месяцев года составили 1 тыс руб</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>График показывает что тенденций нет, но есть периодические колебания, которые можно представить в виде ряда Фурье.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>График показывает что ряд Фурье с одной гормникой</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>y = a + b1*Cost + c1Sint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>y = 11.833 - 0.8235 Cost - 1.388 Sint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>Дать прогноз на февраль след. года (14)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F58ADB-A609-41CF-B7DE-8E176B5274B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF912328-74FF-486D-BC02-05BE5E3AA5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="323850"/>
+          <a:ext cx="5314950" cy="4600575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Задача</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>За 10 месяцев</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> года средний объём продаж составил 400 ед.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Первая гормоника</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t> 0,7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>Cost - 1,8 Sint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>Вторая гормоника</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>: 9,3 Cos2t - 2,7 Sin2t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>Написать уравнение тренда и дать прогноз на 11 месяц</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>y = 400 + 0,7 Cost - 1,8 Sint + 9,3 Cos2t - 2,7 Sin2t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>T = 6,28 = 2 Pi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="1"/>
+            <a:t>Задача</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>За</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> 20 кварталов оъём продаж характеризовался трендом</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" i="1"/>
+            <a:t>y = 7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+            <a:t> + 0,5 t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Остатки</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> подчиняются ряду Фурье</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" i="1" baseline="0"/>
+            <a:t>et = 0,1 Cost + 0,3 Sint + 0,2 Cos2t + 1,1 Sin2t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t>Дать прогноз на следующий квартал.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3914C8-9C99-4FCE-8753-C49E44B7EEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="942975"/>
+          <a:ext cx="3629025" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>y = 0,714+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1,714 t</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ежегодно число учтённых страховых организаций падали в среднем на 2.25 ед.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="0" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Найдём предельную ошибку коэф регрессии</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2915,781 +4861,2815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471091B4-CFBF-41FA-8B21-FF23AFEAB06C}">
-  <dimension ref="A3:O72"/>
+  <dimension ref="A3:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="G4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>B5^2</f>
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>B5^2</f>
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="43">
         <f>($B$12-B5)^2</f>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="G5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
+        <f>LN(E5)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
-        <f t="shared" ref="C6:D11" si="0">B6^2</f>
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:C11" si="0">B6^2</f>
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>B6^3</f>
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="43">
         <f>($B$12-B6)^2</f>
         <v>2.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="G6" s="48">
+        <f>E6/E5</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I10" si="1">LN(E6)</f>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:D11" si="1">B7^3</f>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:D11" si="2">B7^3</f>
         <v>27</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="43">
         <f>(B15-B7)^2</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="G7" s="48">
+        <f t="shared" ref="G7:G10" si="3">E7/E6</f>
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="45">
+        <f>G7/G6</f>
+        <v>1.25</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" si="1"/>
+      <c r="D8" s="15">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>31</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="43">
         <f>(B16-B8)^2</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="G8" s="48">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="45">
+        <f t="shared" ref="H8:H10" si="4">G8/G7</f>
+        <v>1.24</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>3.4339872044851463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" si="1"/>
+      <c r="D9" s="15">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>117</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="43">
         <f>(B17-B9)^2</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="G9" s="48">
+        <f t="shared" si="3"/>
+        <v>3.774193548387097</v>
+      </c>
+      <c r="H9" s="45">
+        <f t="shared" si="4"/>
+        <v>1.2174817898022894</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.7621739347977563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" si="1"/>
+      <c r="D10" s="15">
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>550</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="43">
         <f>(B18-B10)^2</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="G10" s="49">
+        <f t="shared" si="3"/>
+        <v>4.700854700854701</v>
+      </c>
+      <c r="H10" s="46">
+        <f t="shared" si="4"/>
+        <v>1.2455256044999634</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>6.3099182782265162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D11" s="17">
-        <f t="shared" si="1"/>
+      <c r="D11" s="16">
+        <f t="shared" si="2"/>
         <v>343</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <f>AVERAGE(B5:B10)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="N21" s="25" t="s">
+      <c r="C21" s="20"/>
+      <c r="N21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="25"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
+      <c r="O21" s="40"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>0.95125763972427835</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="23">
-        <f>C37*C11+C36*B11+C35</f>
-        <v>841.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="O22" s="55">
+        <f>Q45*Q46^7*Q47^49</f>
+        <v>3194.1265275704677</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>0.90489109713380489</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>0.84148516188967493</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>85.817982908456827</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="22">
         <f>SQRT(1+1/$B$10+($B$11-$B$12)^2/SUM(F5:F10))</f>
         <v>1.1385500851066221</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="22">
         <f>O25*C25</f>
         <v>97.70807174410217</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="S29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>2</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <v>210209.82142857142</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>105104.91071428571</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>14.271394210174954</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="17">
         <v>2.9331330117240935E-2</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>3</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <v>22094.178571428565</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>7364.7261904761881</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="N31" s="24" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="N31" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="22">
         <f>_xlfn.T.INV.2T(0.05,C31)</f>
         <v>3.1824463052837091</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="S31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="20"/>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>232304</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="S32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="17">
+        <v>0.99999835981753316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N33" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20" t="s">
+      <c r="S33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="17">
+        <v>0.99999671963775649</v>
+      </c>
+      <c r="AD33" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE33" s="54"/>
+    </row>
+    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="N34" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="23">
+      <c r="O34" s="22">
         <f>O28*O31</f>
         <v>310.95069191841355</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+      <c r="S34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" s="17">
+        <v>0.99999453272959415</v>
+      </c>
+      <c r="AD34">
+        <f>Q45*Q46^7*Q47^49</f>
+        <v>3194.1265275704677</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>221.49999999999977</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>153.51587478017962</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>1.4428475251642026</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>0.24475944890737267</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <v>-267.05602849657936</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <v>710.05602849657885</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <v>-267.05602849657936</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="17">
         <v>710.05602849657885</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="18" t="s">
+      <c r="S35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="17">
+        <v>4.9633861523421209E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>-220.80357142857133</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="17">
         <v>100.43428011191513</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>-2.1984881176280373</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="17">
         <v>0.11533482398489427</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="17">
         <v>-540.43027509456476</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <v>98.823132237422101</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="17">
         <v>-540.43027509456476</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="17">
         <v>98.823132237422101</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+      <c r="S36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>44.196428571428562</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>14.045264380943923</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>3.146713893929443</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>5.1395791499558419E-2</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>-0.5018711644393079</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="18">
         <v>88.894728307296432</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>-0.5018711644393079</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>88.894728307296432</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="25">
         <f>O22-O34</f>
-        <v>530.54930808158645</v>
-      </c>
-      <c r="O37" s="28">
+        <v>2883.175835652054</v>
+      </c>
+      <c r="O37" s="26">
         <f>O22+O34</f>
-        <v>1152.4506919184137</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+        <v>3505.0772194888814</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S39" s="19"/>
+      <c r="T39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="U39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W39" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="S40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="17">
+        <v>2</v>
+      </c>
+      <c r="U40" s="17">
+        <v>22.529634951774476</v>
+      </c>
+      <c r="V40" s="17">
+        <v>11.264817475887238</v>
+      </c>
+      <c r="W40" s="17">
+        <v>457265.07261490851</v>
+      </c>
+      <c r="X40" s="17">
+        <v>5.9413167539875235E-9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
+      <c r="S41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="17">
+        <v>3</v>
+      </c>
+      <c r="U41" s="17">
+        <v>7.3905606291784577E-5</v>
+      </c>
+      <c r="V41" s="17">
+        <v>2.4635202097261527E-5</v>
+      </c>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+    </row>
+    <row r="42" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T42" s="18">
+        <v>5</v>
+      </c>
+      <c r="U42" s="18">
+        <v>22.529708857380768</v>
+      </c>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+    </row>
+    <row r="43" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="18">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
         <v>1</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>44.892857142857004</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="17">
         <v>-42.892857142857004</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="18">
+      <c r="S44" s="19"/>
+      <c r="T44" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="X44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z44" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA44" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" s="17">
         <v>2</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>-43.32142857142864</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17">
         <v>47.32142857142864</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="18">
+      <c r="P45" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45">
+        <f>EXP(T45)</f>
+        <v>1.2220009986331155</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="17">
+        <v>0.20048967796111183</v>
+      </c>
+      <c r="U45" s="17">
+        <v>8.8787750681744871E-3</v>
+      </c>
+      <c r="V45" s="17">
+        <v>22.580781292653395</v>
+      </c>
+      <c r="W45" s="17">
+        <v>1.9019367322906141E-4</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0.17223345304995483</v>
+      </c>
+      <c r="Y45" s="17">
+        <v>0.22874590287226884</v>
+      </c>
+      <c r="Z45" s="17">
+        <v>0.17223345304995483</v>
+      </c>
+      <c r="AA45" s="17">
+        <v>0.22874590287226884</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
         <v>3</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>-43.142857142857167</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="17">
         <v>53.142857142857167</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="18">
+      <c r="P46" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:Q47" si="5">EXP(T46)</f>
+        <v>1.4681623636418772</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="17">
+        <v>0.38401152601226435</v>
+      </c>
+      <c r="U46" s="17">
+        <v>5.8087372626746481E-3</v>
+      </c>
+      <c r="V46" s="17">
+        <v>66.109295126811304</v>
+      </c>
+      <c r="W46" s="17">
+        <v>7.6265047754574052E-6</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0.36552553157230161</v>
+      </c>
+      <c r="Y46" s="17">
+        <v>0.40249752045222709</v>
+      </c>
+      <c r="Z46" s="17">
+        <v>0.36552553157230161</v>
+      </c>
+      <c r="AA46" s="17">
+        <v>0.40249752045222709</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17">
         <v>4</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>45.428571428571445</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>-14.428571428571445</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="18">
+      <c r="P47" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>1.1115155682635052</v>
+      </c>
+      <c r="S47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="18">
+      <c r="T47" s="18">
+        <v>0.10572446085889098</v>
+      </c>
+      <c r="U47" s="18">
+        <v>8.1232474094297799E-4</v>
+      </c>
+      <c r="V47" s="18">
+        <v>130.15048727453743</v>
+      </c>
+      <c r="W47" s="18">
+        <v>1.0000945482122962E-6</v>
+      </c>
+      <c r="X47" s="18">
+        <v>0.10313928098838646</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>0.1083096407293955</v>
+      </c>
+      <c r="Z47" s="18">
+        <v>0.10313928098838646</v>
+      </c>
+      <c r="AA47" s="18">
+        <v>0.1083096407293955</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>5</v>
+      </c>
+      <c r="C48" s="17">
         <v>222.39285714285711</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>-105.39285714285711</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19">
+    <row r="49" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18">
         <v>6</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>487.75</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>62.25</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I51" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I52" s="27">
+      <c r="S51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="25">
         <f>SQRT(72)</f>
         <v>8.4852813742385695</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="26">
         <f>SQRT(58)</f>
         <v>7.6157731058639087</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="8" t="s">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S53" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U53" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S54" s="17">
+        <v>1</v>
+      </c>
+      <c r="T54" s="17">
+        <v>0.69022566483226711</v>
+      </c>
+      <c r="U54" s="17">
+        <v>2.9215157276781811E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f>(0.7198/(1-0.7198))*(7/1)</f>
+        <v>17.982155603140615</v>
+      </c>
+      <c r="S55" s="17">
+        <v>2</v>
+      </c>
+      <c r="T55" s="17">
+        <v>1.3914105734212043</v>
+      </c>
+      <c r="U55" s="17">
+        <v>-5.1162123013137606E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="7">
+      <c r="G56" s="40"/>
+      <c r="S56" s="17">
+        <v>3</v>
+      </c>
+      <c r="T56" s="17">
+        <v>2.3040444037279237</v>
+      </c>
+      <c r="U56" s="17">
+        <v>-1.4593107338778388E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6">
         <v>1998</v>
       </c>
-      <c r="D57" s="33">
-        <f>(C57-$C$71)^2</f>
+      <c r="D57" s="31">
+        <f>(B57-$C$71)^2</f>
         <v>16</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="23">
-        <f>-2.25*C69+79.58</f>
-        <v>-4442.92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="4">
+      <c r="G57" s="22">
+        <f>-2.25*B69+79.58</f>
+        <v>50.33</v>
+      </c>
+      <c r="I57">
+        <f>72-58</f>
+        <v>14</v>
+      </c>
+      <c r="S57" s="17">
+        <v>4</v>
+      </c>
+      <c r="T57" s="17">
+        <v>3.4281271557524251</v>
+      </c>
+      <c r="U57" s="17">
+        <v>5.8600487327211681E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3">
         <v>1999</v>
       </c>
-      <c r="D58" s="30">
-        <f t="shared" ref="D58:D69" si="2">(C58-$C$71)^2</f>
+      <c r="D58" s="31">
+        <f t="shared" ref="D58:D65" si="6">(B58-$C$71)^2</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="4">
+      <c r="S58" s="17">
+        <v>5</v>
+      </c>
+      <c r="T58" s="17">
+        <v>4.763658829494708</v>
+      </c>
+      <c r="U58" s="17">
+        <v>-1.4848946969516774E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3">
         <v>2000</v>
       </c>
-      <c r="D59" s="30">
-        <f t="shared" si="2"/>
+      <c r="D59" s="31">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="4">
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="S59" s="18">
+        <v>6</v>
+      </c>
+      <c r="T59" s="18">
+        <v>6.3106394249547737</v>
+      </c>
+      <c r="U59" s="18">
+        <v>-7.2114672825751569E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3">
         <v>2001</v>
       </c>
-      <c r="D60" s="30">
-        <f t="shared" si="2"/>
+      <c r="D60" s="31">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="23">
-        <f>SQRT(1+1/$C$65+($C$69-$C$71)^2/SUM(D57:D65))</f>
-        <v>1.4377639483424278</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="4">
+      <c r="G60" s="22">
+        <f>SQRT(1+1/$B$65+($B$69-$C$71)^2/SUM(D57:D65))</f>
+        <v>1.4757295747452437</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3">
         <v>2002</v>
       </c>
-      <c r="D61" s="30">
-        <f t="shared" si="2"/>
+      <c r="D61" s="31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="4">
+      <c r="I61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61">
+        <f>14/6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3">
         <v>2003</v>
       </c>
-      <c r="D62" s="30">
-        <f t="shared" si="2"/>
+      <c r="D62" s="31">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="4">
+    <row r="63" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3">
         <v>2004</v>
       </c>
-      <c r="D63" s="30">
-        <f t="shared" si="2"/>
+      <c r="D63" s="31">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="23">
-        <f>G60*I52</f>
-        <v>12.199831651421707</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="4">
+      <c r="G63" s="22">
+        <f>G60*SQRT(M69)</f>
+        <v>1.7464185017923819</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63">
+        <f>J61^2</f>
+        <v>5.4444444444444455</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3">
         <v>2005</v>
       </c>
-      <c r="D64" s="30">
-        <f t="shared" si="2"/>
+      <c r="D64" s="31">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="31">
+    <row r="65" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" s="29">
         <v>2006</v>
       </c>
-      <c r="D65" s="32">
-        <f t="shared" si="2"/>
+      <c r="D65" s="31">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="34">
+      <c r="I65" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65">
+        <f>J63*9</f>
+        <v>49.000000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" s="32">
         <v>2007</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="F66" s="24" t="s">
+      <c r="D66" s="33"/>
+      <c r="F66" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <f>_xlfn.T.INV.2T(0.05,7)</f>
         <v>2.3646242515927849</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="36">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67" s="34">
         <v>2008</v>
       </c>
-      <c r="D67" s="37"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="36">
+      <c r="D67" s="35"/>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67">
+        <f>(1-0.7198)*J65/7</f>
+        <v>1.9614000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" s="34">
         <v>2009</v>
       </c>
-      <c r="D68" s="37"/>
+      <c r="D68" s="35"/>
       <c r="F68" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="38">
+    <row r="69" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>13</v>
+      </c>
+      <c r="C69" s="36">
         <v>2010</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="F69" s="24" t="s">
+      <c r="D69" s="37"/>
+      <c r="F69" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <f>G63*G66</f>
-        <v>28.848017788301025</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="22" t="s">
+        <v>4.1296235427686039</v>
+      </c>
+      <c r="I69" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69">
+        <f>SQRT(J67)</f>
+        <v>1.4004999107461593</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="29">
-        <f>AVERAGE(C57:C65)</f>
-        <v>2002</v>
+      <c r="C71" s="27">
+        <f>AVERAGE(B57:B65)</f>
+        <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="27">
+    <row r="72" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="25">
         <f>G57-G69</f>
-        <v>-4471.7680177883012</v>
-      </c>
-      <c r="G72" s="28">
+        <v>46.200376457231393</v>
+      </c>
+      <c r="G72" s="26">
         <f>G57+G69</f>
-        <v>-4414.0719822116989</v>
+        <v>54.459623542768604</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="F56:G56"/>
+    <mergeCell ref="AD33:AE33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2CED6-8A77-4828-832C-ED6E61706C02}">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="72">
+        <v>1</v>
+      </c>
+      <c r="C3" s="78">
+        <v>12</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0</v>
+      </c>
+      <c r="E3" s="69">
+        <f>COS(D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <f>SIN(D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="79">
+        <v>11</v>
+      </c>
+      <c r="D4" s="45">
+        <f>2*PI()/$B$14</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E4" s="70">
+        <f t="shared" ref="E4:E14" si="0">COS(D4)</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="F4" s="28">
+        <f t="shared" ref="F4:F14" si="1">SIN(D4)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="45">
+        <v>3</v>
+      </c>
+      <c r="C5" s="79">
+        <v>10</v>
+      </c>
+      <c r="D5" s="45">
+        <f>D4+$D$4</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="E5" s="70">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
+        <v>4</v>
+      </c>
+      <c r="C6" s="79">
+        <v>10</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:D16" si="2">D5+$D$4</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E6" s="70">
+        <f t="shared" si="0"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="45">
+        <v>5</v>
+      </c>
+      <c r="C7" s="79">
+        <v>11</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="E7" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
+        <v>6</v>
+      </c>
+      <c r="C8" s="79">
+        <v>12</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="2"/>
+        <v>2.617993877991494</v>
+      </c>
+      <c r="E8" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.86602540378443849</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="45">
+        <v>7</v>
+      </c>
+      <c r="C9" s="79">
+        <v>12</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="2"/>
+        <v>3.1415926535897927</v>
+      </c>
+      <c r="E9" s="70">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="1"/>
+        <v>5.6660405534092462E-16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="45">
+        <v>8</v>
+      </c>
+      <c r="C10" s="79">
+        <v>14</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" si="2"/>
+        <v>3.6651914291880914</v>
+      </c>
+      <c r="E10" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.86602540378443904</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="45">
+        <v>9</v>
+      </c>
+      <c r="C11" s="79">
+        <v>14</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="2"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="E11" s="70">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="45">
+        <v>10</v>
+      </c>
+      <c r="C12" s="79">
+        <v>13</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="E12" s="70">
+        <f t="shared" si="0"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="45">
+        <v>11</v>
+      </c>
+      <c r="C13" s="79">
+        <v>12</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="E13" s="70">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="73">
+        <v>12</v>
+      </c>
+      <c r="C14" s="80">
+        <v>11</v>
+      </c>
+      <c r="D14" s="73">
+        <f t="shared" si="2"/>
+        <v>5.759586531581288</v>
+      </c>
+      <c r="E14" s="71">
+        <f t="shared" si="0"/>
+        <v>0.86602540378443882</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.49999999999999967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="74">
+        <v>13</v>
+      </c>
+      <c r="C15" s="76">
+        <f>SUM(C3:C14)</f>
+        <v>142</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795871</v>
+      </c>
+      <c r="E15" s="77">
+        <f>SUM(E3:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="67">
+        <f>SUM(F3:F14)</f>
+        <v>1.8873791418627661E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="75">
+        <v>14</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="2"/>
+        <v>6.8067840827778863</v>
+      </c>
+      <c r="E16" s="81">
+        <f>COS(D16)</f>
+        <v>0.86602540378443815</v>
+      </c>
+      <c r="F16" s="66">
+        <f>SIN(D16)</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="61">
+        <f>AVERAGE(C3:C14)</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="82">
+        <f>C37+C38*E16+C39*F16</f>
+        <v>10.422649730810374</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.89268838393935712</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.79689255082026111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.75175756211365252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0.66620371430090242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17">
+        <v>15.672220166131803</v>
+      </c>
+      <c r="E32" s="17">
+        <v>7.8361100830659014</v>
+      </c>
+      <c r="F32" s="17">
+        <v>17.655760501023021</v>
+      </c>
+      <c r="G32" s="17">
+        <v>7.6694873166355466E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="17">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17">
+        <v>3.9944465005348651</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.44382738894831836</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="18">
+        <v>11</v>
+      </c>
+      <c r="D34" s="18">
+        <v>19.666666666666668</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="17">
+        <v>11.833333333333334</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.19231644689337729</v>
+      </c>
+      <c r="E37" s="17">
+        <v>61.530532226886898</v>
+      </c>
+      <c r="F37" s="17">
+        <v>3.9887452330378601E-13</v>
+      </c>
+      <c r="G37" s="17">
+        <v>11.39828330546958</v>
+      </c>
+      <c r="H37" s="17">
+        <v>12.268383361197088</v>
+      </c>
+      <c r="I37" s="17">
+        <v>11.39828330546958</v>
+      </c>
+      <c r="J37" s="17">
+        <v>12.268383361197088</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="17">
+        <v>-0.82735026918962618</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.27197652746401924</v>
+      </c>
+      <c r="E38" s="17">
+        <v>-3.041991442805958</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1.3972798444029964E-2</v>
+      </c>
+      <c r="G38" s="17">
+        <v>-1.4426039189053401</v>
+      </c>
+      <c r="H38" s="17">
+        <v>-0.21209661947391223</v>
+      </c>
+      <c r="I38" s="17">
+        <v>-1.4426039189053401</v>
+      </c>
+      <c r="J38" s="17">
+        <v>-0.21209661947391223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="18">
+        <v>-1.3883545031536992</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0.27197652746401924</v>
+      </c>
+      <c r="E39" s="18">
+        <v>-5.1046850112363824</v>
+      </c>
+      <c r="F39" s="18">
+        <v>6.4108469385268038E-4</v>
+      </c>
+      <c r="G39" s="18">
+        <v>-2.003608152869413</v>
+      </c>
+      <c r="H39" s="18">
+        <v>-0.77310085343798529</v>
+      </c>
+      <c r="I39" s="18">
+        <v>-2.003608152869413</v>
+      </c>
+      <c r="J39" s="18">
+        <v>-0.77310085343798529</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17">
+        <v>11.005983064143708</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.99401693585629225</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
+        <v>2</v>
+      </c>
+      <c r="C47" s="17">
+        <v>10.422649730810374</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.57735026918962618</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>3</v>
+      </c>
+      <c r="C48" s="17">
+        <v>10.217307929548895</v>
+      </c>
+      <c r="D48" s="17">
+        <v>-0.21730792954889466</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>4</v>
+      </c>
+      <c r="C49" s="17">
+        <v>10.444978830179634</v>
+      </c>
+      <c r="D49" s="17">
+        <v>-0.44497883017963424</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>5</v>
+      </c>
+      <c r="C50" s="17">
+        <v>11.044658198738521</v>
+      </c>
+      <c r="D50" s="17">
+        <v>-4.4658198738520838E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
+        <v>6</v>
+      </c>
+      <c r="C51" s="17">
+        <v>11.855662432702594</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0.14433756729740566</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="17">
+        <v>7</v>
+      </c>
+      <c r="C52" s="17">
+        <v>12.66068360252296</v>
+      </c>
+      <c r="D52" s="17">
+        <v>-0.6606836025229601</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
+        <v>8</v>
+      </c>
+      <c r="C53" s="17">
+        <v>13.244016935856292</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0.75598306414370775</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
+        <v>9</v>
+      </c>
+      <c r="C54" s="17">
+        <v>13.449358737117773</v>
+      </c>
+      <c r="D54" s="17">
+        <v>0.55064126288222681</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
+        <v>10</v>
+      </c>
+      <c r="C55" s="17">
+        <v>13.221687836487034</v>
+      </c>
+      <c r="D55" s="17">
+        <v>-0.22168783648703361</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
+        <v>11</v>
+      </c>
+      <c r="C56" s="17">
+        <v>12.622008467928147</v>
+      </c>
+      <c r="D56" s="17">
+        <v>-0.62200846792814701</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18">
+        <v>12</v>
+      </c>
+      <c r="C57" s="18">
+        <v>11.811004233964074</v>
+      </c>
+      <c r="D57" s="18">
+        <v>-0.81100423396407351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CA536E-27F1-40B9-86FE-6C5F5B7D5857}">
+  <dimension ref="C5:K50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="83">
+        <v>1</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <f>2*PI()/C16</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="91"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <f>D8+$D$8</f>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="91"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="44">
+        <f t="shared" ref="D10:D17" si="0">D9+$D$8</f>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="91"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="44">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="91"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="44">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="91"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" s="44">
+        <f t="shared" si="0"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="91"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="44">
+        <f t="shared" si="0"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="91"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="0"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="44">
+        <f t="shared" si="0"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="58">
+        <v>11</v>
+      </c>
+      <c r="D17" s="59">
+        <f t="shared" si="0"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="E17" s="59">
+        <f>COS(D17)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59">
+        <v>1</v>
+      </c>
+      <c r="H17" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <f>400+0.7+9.3</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>7+0.5*21</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G28" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <f>0.1+0.2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K29">
+        <f>D26+G29</f>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f>2*PI()/C48</f>
+        <v>0.33069396353576769</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f>D31+$D$31</f>
+        <v>0.66138792707153538</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D50" si="1">D32+$D$31</f>
+        <v>0.99208189060730301</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.3227758541430708</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.6534698176788385</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.9841637812146062</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2.3148577447503738</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2.6455517082861415</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2.9762456718219092</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3.306939635357677</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>3.6376335988934447</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>3.9683275624292125</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>4.2990215259649798</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>4.6297154895007475</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>4.9604094530365153</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>5.291103416572283</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>5.6217973801080507</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>5.9524913436438185</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>6.613879270715354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:H16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF0091-F4C3-4F65-8C34-C6C7EC533D71}">
+  <dimension ref="C3:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.8660254037844386</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2.3421601750764798</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>82.285714285714292</v>
+      </c>
+      <c r="K14" s="17">
+        <v>82.285714285714292</v>
+      </c>
+      <c r="L14" s="17">
+        <v>15.000000000000002</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1.1724811003954635E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17">
+        <v>27.428571428571431</v>
+      </c>
+      <c r="K15" s="17">
+        <v>5.4857142857142858</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="18">
+        <v>6</v>
+      </c>
+      <c r="J16" s="18">
+        <v>109.71428571428572</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.71428571428571441</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1.9794866372215736</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.36084391824351625</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.73296054068885352</v>
+      </c>
+      <c r="M19" s="17">
+        <v>-4.3741466792408747</v>
+      </c>
+      <c r="N19" s="17">
+        <v>5.8027181078123036</v>
+      </c>
+      <c r="O19" s="17">
+        <v>-4.3741466792408747</v>
+      </c>
+      <c r="P19" s="17">
+        <v>5.8027181078123036</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0.44262666813799045</v>
+      </c>
+      <c r="K20" s="18">
+        <v>3.872983346207417</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1.1724811003954635E-2</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.57647764120197276</v>
+      </c>
+      <c r="N20" s="18">
+        <v>2.8520937873694558</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.57647764120197276</v>
+      </c>
+      <c r="P20" s="18">
+        <v>2.8520937873694558</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>J20*L23</f>
+        <v>1.1378080730837414</v>
+      </c>
+      <c r="N22">
+        <f>I20-L22</f>
+        <v>0.57647764120197276</v>
+      </c>
+      <c r="O22">
+        <f>I20+L22</f>
+        <v>2.8520937873694558</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f>_xlfn.T.INV.2T(0.05,I15)</f>
+        <v>2.570581835636315</v>
+      </c>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2.4285714285714288</v>
+      </c>
+      <c r="J27" s="17">
+        <v>-0.42857142857142883</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="17">
+        <v>2</v>
+      </c>
+      <c r="I28" s="17">
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1.8571428571428577</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="17">
+        <v>3</v>
+      </c>
+      <c r="I29" s="17">
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1.1428571428571432</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="17">
+        <v>4</v>
+      </c>
+      <c r="I30" s="17">
+        <v>7.5714285714285712</v>
+      </c>
+      <c r="J30" s="17">
+        <v>-4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="17">
+        <v>5</v>
+      </c>
+      <c r="I31" s="17">
+        <v>9.2857142857142847</v>
+      </c>
+      <c r="J31" s="17">
+        <v>0.7142857142857153</v>
+      </c>
+    </row>
+    <row r="32" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H32" s="17">
+        <v>6</v>
+      </c>
+      <c r="I32" s="17">
+        <v>11</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="18">
+        <v>7</v>
+      </c>
+      <c r="I33" s="18">
+        <v>12.714285714285715</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0.2857142857142847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3-course-6-semester/econometrics/task-11/task-11.xlsx
+++ b/3-course-6-semester/econometrics/task-11/task-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB2436-D3ED-4F55-BB65-3DE18E6B332D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F81280-EF3F-47B0-80B8-089654CBB974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ №1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,20 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterate="1" iterateCount="1" iterateDelta="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -995,9 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,12 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,13 +1080,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1181,7 +1191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1263,7 +1273,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1313,7 +1323,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1364,7 +1374,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1414,7 +1424,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1465,7 +1475,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1557,7 +1567,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1565144240"/>
@@ -1616,7 +1626,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1565142160"/>
@@ -1664,7 +1674,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1837,7 +1847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95811344"/>
@@ -1899,7 +1909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95808064"/>
@@ -1947,7 +1957,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4799,7 +4809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -4863,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471091B4-CFBF-41FA-8B21-FF23AFEAB06C}">
   <dimension ref="A3:AE72"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
@@ -4891,16 +4901,16 @@
       <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="40" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4919,14 +4929,14 @@
       <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f>($B$12-B5)^2</f>
         <v>6.25</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="50" t="s">
         <v>47</v>
       </c>
       <c r="I5">
@@ -4949,15 +4959,15 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <f>($B$12-B6)^2</f>
         <v>2.25</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <f>E6/E5</f>
         <v>2</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>47</v>
       </c>
       <c r="I6">
@@ -4980,15 +4990,15 @@
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <f>(B15-B7)^2</f>
         <v>9</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <f t="shared" ref="G7:G10" si="3">E7/E6</f>
         <v>2.5</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <f>G7/G6</f>
         <v>1.25</v>
       </c>
@@ -5012,15 +5022,15 @@
       <c r="E8" s="4">
         <v>31</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f>(B16-B8)^2</f>
         <v>16</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <f t="shared" ref="H8:H10" si="4">G8/G7</f>
         <v>1.24</v>
       </c>
@@ -5044,15 +5054,15 @@
       <c r="E9" s="4">
         <v>117</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f>(B17-B9)^2</f>
         <v>25</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <f t="shared" si="3"/>
         <v>3.774193548387097</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <f t="shared" si="4"/>
         <v>1.2174817898022894</v>
       </c>
@@ -5076,15 +5086,15 @@
       <c r="E10" s="4">
         <v>550</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <f>(B18-B10)^2</f>
         <v>36</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <f t="shared" si="3"/>
         <v>4.700854700854701</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <f t="shared" si="4"/>
         <v>1.2455256044999634</v>
       </c>
@@ -5130,10 +5140,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="40"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
@@ -5145,7 +5155,7 @@
       <c r="N22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="55">
+      <c r="O22" s="52">
         <f>Q45*Q46^7*Q47^49</f>
         <v>3194.1265275704677</v>
       </c>
@@ -5310,10 +5320,10 @@
       <c r="T33" s="17">
         <v>0.99999671963775649</v>
       </c>
-      <c r="AD33" s="53" t="s">
+      <c r="AD33" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AE33" s="54"/>
+      <c r="AE33" s="87"/>
     </row>
     <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
@@ -5602,7 +5612,7 @@
       <c r="D45" s="17">
         <v>47.32142857142864</v>
       </c>
-      <c r="P45" s="52" t="s">
+      <c r="P45" s="51" t="s">
         <v>52</v>
       </c>
       <c r="Q45">
@@ -5647,7 +5657,7 @@
       <c r="D46" s="17">
         <v>53.142857142857167</v>
       </c>
-      <c r="P46" s="52" t="s">
+      <c r="P46" s="51" t="s">
         <v>53</v>
       </c>
       <c r="Q46">
@@ -5692,7 +5702,7 @@
       <c r="D47" s="17">
         <v>-14.428571428571445</v>
       </c>
-      <c r="P47" s="52" t="s">
+      <c r="P47" s="51" t="s">
         <v>54</v>
       </c>
       <c r="Q47">
@@ -5790,7 +5800,7 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I55" s="56" t="s">
+      <c r="I55" s="53" t="s">
         <v>1</v>
       </c>
       <c r="J55">
@@ -5814,10 +5824,10 @@
       <c r="D56" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="40"/>
+      <c r="G56" s="85"/>
       <c r="S56" s="17">
         <v>3</v>
       </c>
@@ -6126,7 +6136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2CED6-8A77-4828-832C-ED6E61706C02}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6137,33 +6147,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="72">
+      <c r="B3" s="69">
         <v>1</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="75">
         <v>12</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="69">
         <v>0</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="66">
         <f>COS(D3)</f>
         <v>1</v>
       </c>
@@ -6173,17 +6183,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="76">
         <v>11</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <f>2*PI()/$B$14</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="67">
         <f t="shared" ref="E4:E14" si="0">COS(D4)</f>
         <v>0.86602540378443871</v>
       </c>
@@ -6193,17 +6203,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="76">
         <v>10</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <f>D4+$D$4</f>
         <v>1.0471975511965976</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="67">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
@@ -6213,17 +6223,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="76">
         <v>10</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <f t="shared" ref="D6:D16" si="2">D5+$D$4</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="67">
         <f t="shared" si="0"/>
         <v>6.1257422745431001E-17</v>
       </c>
@@ -6233,17 +6243,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="76">
         <v>11</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <f t="shared" si="2"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="67">
         <f t="shared" si="0"/>
         <v>-0.49999999999999978</v>
       </c>
@@ -6253,17 +6263,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>6</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="76">
         <v>12</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <f t="shared" si="2"/>
         <v>2.617993877991494</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="67">
         <f t="shared" si="0"/>
         <v>-0.86602540378443849</v>
       </c>
@@ -6273,17 +6283,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>7</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="76">
         <v>12</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <f t="shared" si="2"/>
         <v>3.1415926535897927</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="67">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -6293,17 +6303,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>8</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="76">
         <v>14</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <f t="shared" si="2"/>
         <v>3.6651914291880914</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="67">
         <f t="shared" si="0"/>
         <v>-0.86602540378443904</v>
       </c>
@@ -6313,17 +6323,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>9</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="76">
         <v>14</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <f t="shared" si="2"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="67">
         <f t="shared" si="0"/>
         <v>-0.50000000000000044</v>
       </c>
@@ -6333,17 +6343,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>10</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="76">
         <v>13</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <f t="shared" si="2"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="67">
         <f t="shared" si="0"/>
         <v>-1.83772268236293E-16</v>
       </c>
@@ -6353,17 +6363,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="45">
+      <c r="B13" s="44">
         <v>11</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="76">
         <v>12</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <f t="shared" si="2"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="67">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
@@ -6373,17 +6383,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="73">
+      <c r="B14" s="70">
         <v>12</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="77">
         <v>11</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="70">
         <f t="shared" si="2"/>
         <v>5.759586531581288</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>0.86602540378443882</v>
       </c>
@@ -6393,52 +6403,52 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="71">
         <v>13</v>
       </c>
-      <c r="C15" s="76">
+      <c r="C15" s="73">
         <f>SUM(C3:C14)</f>
         <v>142</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f t="shared" si="2"/>
         <v>6.2831853071795871</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="74">
         <f>SUM(E3:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="64">
         <f>SUM(F3:F14)</f>
         <v>1.8873791418627661E-15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75">
+      <c r="B16" s="72">
         <v>14</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="45">
         <f t="shared" si="2"/>
         <v>6.8067840827778863</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="78">
         <f>COS(D16)</f>
         <v>0.86602540378443815</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="63">
         <f>SIN(D16)</f>
         <v>0.50000000000000078</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <f>AVERAGE(C3:C14)</f>
         <v>11.833333333333334</v>
       </c>
@@ -6447,7 +6457,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="82">
+      <c r="L20" s="79">
         <f>C37+C38*E16+C39*F16</f>
         <v>10.422649730810374</v>
       </c>
@@ -6863,180 +6873,180 @@
   <sheetData>
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="84" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="83">
+      <c r="C7" s="80">
         <v>1</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="81">
         <v>0</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <f>2*PI()/C16</f>
         <v>0.62831853071795862</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="91"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <f>D8+$D$8</f>
         <v>1.2566370614359172</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="91"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <f t="shared" ref="D10:D17" si="0">D9+$D$8</f>
         <v>1.8849555921538759</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="91"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>2.5132741228718345</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="91"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="91"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <f t="shared" si="0"/>
         <v>3.7699111843077517</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="91"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="43">
         <f t="shared" si="0"/>
         <v>4.3982297150257104</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="91"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="43">
         <f t="shared" si="0"/>
         <v>5.026548245743669</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="91"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <f t="shared" si="0"/>
         <v>5.6548667764616276</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="91"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="58">
+      <c r="C17" s="55">
         <v>11</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="56">
         <f t="shared" si="0"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="56">
         <f>COS(D17)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="56">
         <v>0</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="56">
         <v>1</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="53" t="s">
         <v>32</v>
       </c>
       <c r="F20">
@@ -7045,7 +7055,7 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7056,10 +7066,10 @@
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="54" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7083,7 +7093,7 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="81">
         <v>0</v>
       </c>
     </row>
@@ -7280,8 +7290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF0091-F4C3-4F65-8C34-C6C7EC533D71}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3-course-6-semester/econometrics/task-11/task-11.xlsx
+++ b/3-course-6-semester/econometrics/task-11/task-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F81280-EF3F-47B0-80B8-089654CBB974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973CD64-59F0-4D22-82F5-E9A8F68CC0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДЗ №1" sheetId="1" r:id="rId1"/>
@@ -4809,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471091B4-CFBF-41FA-8B21-FF23AFEAB06C}">
   <dimension ref="A3:AE72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6136,8 +6136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2CED6-8A77-4828-832C-ED6E61706C02}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7290,7 +7290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF0091-F4C3-4F65-8C34-C6C7EC533D71}">
   <dimension ref="C3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
